--- a/report/mymovesopponent.xlsx
+++ b/report/mymovesopponent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>b value</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>ID_Improved</t>
+  </si>
+  <si>
+    <t>start value</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -257,11 +259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="20155392"/>
-        <c:axId val="20157184"/>
+        <c:axId val="194727296"/>
+        <c:axId val="194733568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20155392"/>
+        <c:axId val="194727296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,14 +285,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="20157184"/>
+        <c:crossAx val="194733568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -298,7 +299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20157184"/>
+        <c:axId val="194733568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,21 +322,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20155392"/>
+        <c:crossAx val="194727296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -405,6 +404,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$B$3:$B$8</c:f>
@@ -469,11 +477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210776832"/>
-        <c:axId val="214507520"/>
+        <c:axId val="194768256"/>
+        <c:axId val="195167744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210776832"/>
+        <c:axId val="194768256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214507520"/>
+        <c:crossAx val="195167744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -510,7 +518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214507520"/>
+        <c:axId val="195167744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +548,301 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210776832"/>
+        <c:crossAx val="194768256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Center</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Opening</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.79459999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="14661888"/>
+        <c:axId val="14664064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14661888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>start value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="14664064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14664064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="14661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -806,6 +1108,159 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8629650" y="1743075"/>
+          <a:ext cx="931217" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID_Improved</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>78,12%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="3190875"/>
+          <a:ext cx="3600450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="931217" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="2914650"/>
           <a:ext cx="931217" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1287,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,12 +1824,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.79459999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.81159999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.79379999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.78120000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>